--- a/GPR/Test_g0/00_DotProduct/content/results/metrics_4_10.xlsx
+++ b/GPR/Test_g0/00_DotProduct/content/results/metrics_4_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,491 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_10_6</t>
+          <t>model_4_10_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6606432361096928</v>
+        <v>0.6752775330469072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5807433230258066</v>
+        <v>0.50306303111749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6177687562054639</v>
+        <v>0.6137848937282999</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3085646919902181</v>
+        <v>0.2209162785283104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7203944230204313</v>
+        <v>0.689328397468037</v>
       </c>
       <c r="G2" t="n">
-        <v>2.803571329425919</v>
+        <v>3.323019799101687</v>
       </c>
       <c r="H2" t="n">
-        <v>1.367218996012131</v>
+        <v>1.381469041095329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.764229479356158</v>
+        <v>0.5488697630921797</v>
       </c>
       <c r="J2" t="n">
-        <v>1.464274126669474</v>
+        <v>1.42677808584412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8487605215963048</v>
+        <v>0.8302580306555529</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5378971725749009</v>
+        <v>0.5578247258511077</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8621276513621995</v>
+        <v>0.8433337646848361</v>
       </c>
       <c r="N2" t="n">
-        <v>34.65591281442885</v>
+        <v>34.74407498478747</v>
       </c>
       <c r="O2" t="n">
-        <v>71.62049640265467</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_7</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6606622962157692</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5804812567374482</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6170970265629455</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.3093766662170687</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7203539617844088</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.805323767902875</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.369621733994297</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7647036894922217</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.464650192899436</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8487366857774022</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.5379231267618985</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8621034401529764</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34.6560251483699</v>
-      </c>
-      <c r="O3" t="n">
-        <v>71.62060873659573</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_8</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6612920349339382</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5792188161325359</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6159772665453356</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.2997455753236762</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7190171378020952</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.813765714040929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.373627050649872</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.75907892854296</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.46238859215152</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.847948782534709</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5387806433142988</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.861303128221825</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34.65974017187447</v>
-      </c>
-      <c r="O4" t="n">
-        <v>71.62432376010028</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_9</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6616819753049592</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5783026340443428</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6149979666768373</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.293737079234732</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7181893633225953</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.819892227883306</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.377129949496422</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7555698396412999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.461138417842442</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.8474605379146544</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5393116259471785</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.86080719423707</v>
-      </c>
-      <c r="N5" t="n">
-        <v>34.66204401497672</v>
-      </c>
-      <c r="O5" t="n">
-        <v>71.62662760320254</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6660884569037312</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5762060052538516</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6317611506152554</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.1386487440997519</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7088351818042814</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.833912394259409</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.317169012533951</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.6649949690675298</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.451615482085151</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8419235011592688</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.545311941315719</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8551829546877933</v>
-      </c>
-      <c r="N6" t="n">
-        <v>34.68826449038938</v>
-      </c>
-      <c r="O6" t="n">
-        <v>71.65284807861521</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6657462784197884</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5758871058342269</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.63193239807676</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.1298173904208602</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7095615662401892</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.836044876146836</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.316556470293647</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6598372715800906</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.455570487584024</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8423547745695926</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5448459961460949</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8556210202232144</v>
-      </c>
-      <c r="N7" t="n">
-        <v>34.68621602404762</v>
-      </c>
-      <c r="O7" t="n">
-        <v>71.65079961227343</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_5</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6666659083444386</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5729623497018523</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6200050628446662</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.193719203340279</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7076093544694083</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.855602733871289</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.359219856832214</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.6971572829759715</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.434859043029399</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.841195194036086</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.5460982581711504</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.8544431774554603</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34.69172619357511</v>
-      </c>
-      <c r="O8" t="n">
-        <v>71.65630978180093</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_4</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6685523673087888</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5702422575395469</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6209895636838394</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.1533212273774867</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7036047355497925</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.873792002685498</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.35569835441513</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6735640098836555</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.425153185758659</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8388115017987012</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.5486670533566484</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8520219444481548</v>
-      </c>
-      <c r="N9" t="n">
-        <v>34.70307707136806</v>
-      </c>
-      <c r="O9" t="n">
-        <v>71.66766065959388</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_1</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6808340990107034</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5357750081633398</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6174711613866175</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2682997170428045</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6775327901385249</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.104274657971285</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.368283475423606</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.4273284536194036</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.419535942602555</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8231238000073409</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5653911135464897</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.836087177035529</v>
-      </c>
-      <c r="N10" t="n">
-        <v>34.77859465734203</v>
-      </c>
-      <c r="O10" t="n">
-        <v>71.74317824556785</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_4_10_0</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6792999475295307</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5258480809590208</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6099472682105831</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3500429025780573</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6807895225473198</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.170656065895863</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.395196005053889</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3795887029560203</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.452306783095652</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.8250997046098852</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5633020562104247</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8380942001603834</v>
-      </c>
-      <c r="N11" t="n">
-        <v>34.76900418350854</v>
-      </c>
-      <c r="O11" t="n">
-        <v>71.73358777173435</v>
+        <v>71.7086585730133</v>
       </c>
     </row>
   </sheetData>
